--- a/pdf/python/Author/Oliphant, Travis.xlsx
+++ b/pdf/python/Author/Oliphant, Travis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>author</t>
   </si>
@@ -25,25 +25,22 @@
     <t>Oliphant, Travis</t>
   </si>
   <si>
-    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%22Oliphant%2C+Travis%22+intext%22python%22&amp;btnG=</t>
-  </si>
-  <si>
-    <t>https://ecs.wgtn.ac.nz/foswiki/pub/Support/ManualPagesAndDocumentation/numpybook.pdf</t>
-  </si>
-  <si>
-    <t>https://sciencedirect.xilesou.top/science/article/pii/S1877050919301620</t>
-  </si>
-  <si>
-    <t>http://theses.ubn.ru.nl/handle/123456789/5211</t>
-  </si>
-  <si>
-    <t>https://arxiv.xilesou.top/abs/1611.05360</t>
-  </si>
-  <si>
-    <t>https://is.muni.cz/th/fuaps/main.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mitpressjournals.org/doi/abs/10.1162/COLI_a_00275</t>
+    <t>https://scholar.google.com.hk/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%3A%22Oliphant%2C+Travis%22+intext%3A%22python%22&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/4160250/</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.476.2204&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>https://www.scienceopen.com/document?vid=ab12905a-8a5b-43d8-a2bb-defc771410b9</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41592-019-0686-2?es_p=11046330</t>
+  </si>
+  <si>
+    <t>https://www.scienceopen.com/document?vid=81ae2602-ca28-464a-b7d9-1514a433b55c</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,11 +440,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -456,7 +448,6 @@
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
